--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\האחסון שלי\אקדמיה\האוניברסיטה העברית\קורסים\שנה ג\סמסטר ב\מבוא לבינה מלאכותית\מטלות\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C70D17-1A38-45BE-906D-DFC837F85B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291F8EDD-1CF3-466E-9404-0DB5B6C293B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="21">
   <si>
     <t>Data set</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Mini Math</t>
+  </si>
+  <si>
+    <t>Mini Physics</t>
+  </si>
+  <si>
+    <t>UCS</t>
   </si>
 </sst>
 </file>
@@ -485,16 +494,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC75BA4-E9C4-4F04-AA12-B23A0E27743F}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.796875" style="2"/>
     <col min="4" max="4" width="10.09765625" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.796875" style="2"/>
@@ -764,122 +773,68 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D14" s="2">
-        <v>63</v>
-      </c>
-      <c r="E14" s="2">
-        <v>78.594999999999999</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D15" s="2">
-        <v>381</v>
-      </c>
-      <c r="E15" s="2">
-        <v>78.721999999999994</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D16" s="2">
-        <v>139</v>
-      </c>
-      <c r="E16" s="2">
-        <v>79.165999999999997</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D17" s="2">
-        <v>63</v>
-      </c>
-      <c r="E17" s="2">
-        <v>68.524000000000001</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D18" s="2">
-        <v>381</v>
-      </c>
-      <c r="E18" s="2">
-        <v>66.635000000000005</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D19" s="2">
-        <v>139</v>
-      </c>
-      <c r="E19" s="2">
-        <v>71.578999999999994</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,16 +842,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2">
-        <v>78.908000000000001</v>
+        <v>78.594999999999999</v>
       </c>
       <c r="F20" s="2">
         <v>0.01</v>
@@ -907,19 +862,19 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="E21" s="2">
-        <v>78.965999999999994</v>
+        <v>78.721999999999994</v>
       </c>
       <c r="F21" s="2">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -927,19 +882,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2">
-        <v>65958</v>
+        <v>139</v>
       </c>
       <c r="E22" s="2">
-        <v>78.5</v>
+        <v>79.165999999999997</v>
       </c>
       <c r="F22" s="2">
-        <v>10</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -947,19 +902,19 @@
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="2">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E23" s="2">
-        <v>79.44</v>
+        <v>68.524000000000001</v>
       </c>
       <c r="F23" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,19 +922,19 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>2105</v>
+        <v>381</v>
       </c>
       <c r="E24" s="2">
-        <v>80.082999999999998</v>
+        <v>66.635000000000005</v>
       </c>
       <c r="F24" s="2">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,19 +942,19 @@
         <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2">
-        <v>80.082999999999998</v>
+        <v>71.578999999999994</v>
       </c>
       <c r="F25" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1007,16 +962,16 @@
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2">
-        <v>75.977999999999994</v>
+        <v>78.908000000000001</v>
       </c>
       <c r="F26" s="2">
         <v>0.01</v>
@@ -1027,19 +982,19 @@
         <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>363</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2">
-        <v>75.62</v>
+        <v>78.965999999999994</v>
       </c>
       <c r="F27" s="2">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1047,118 +1002,403 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2">
-        <v>105683</v>
+        <v>65958</v>
       </c>
       <c r="E28" s="2">
-        <v>76.590999999999994</v>
+        <v>78.5</v>
       </c>
       <c r="F28" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>24</v>
       </c>
       <c r="E29" s="2">
-        <v>80.150000000000006</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>17</v>
+        <v>79.44</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2105</v>
       </c>
       <c r="E30" s="2">
-        <v>81.325000000000003</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>80.082999999999998</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.15</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D31" s="2">
+        <v>72</v>
       </c>
       <c r="E31" s="2">
-        <v>80.233000000000004</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>17</v>
+        <v>80.082999999999998</v>
+      </c>
+      <c r="F31" s="2">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43</v>
       </c>
       <c r="E32" s="2">
-        <v>84.606999999999999</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>17</v>
+        <v>75.977999999999994</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="D33" s="2">
+        <v>363</v>
       </c>
       <c r="E33" s="2">
+        <v>75.62</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2">
+        <v>105683</v>
+      </c>
+      <c r="E34" s="2">
+        <v>76.590999999999994</v>
+      </c>
+      <c r="F34" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="2">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="2">
+        <v>81.325000000000003</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="2">
+        <v>80.233000000000004</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="2">
+        <v>84.606999999999999</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="2">
         <v>78.817999999999998</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1170,16 +1410,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8729A61D-97FE-4E17-BE5D-4AD4726A2D83}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
@@ -1367,86 +1607,68 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D14" s="2">
-        <v>78.594999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D15" s="2">
-        <v>78.721999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D16" s="2">
-        <v>79.165999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D17" s="2">
-        <v>68.524000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D18" s="2">
-        <v>66.635000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D19" s="2">
-        <v>71.578999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1454,13 +1676,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>78.908000000000001</v>
+        <v>78.594999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1468,13 +1690,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2">
-        <v>78.965999999999994</v>
+        <v>78.721999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,13 +1704,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2">
-        <v>78.5</v>
+        <v>79.165999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1496,13 +1718,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="2">
-        <v>79.44</v>
+        <v>68.524000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,13 +1732,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>80.082999999999998</v>
+        <v>66.635000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,13 +1746,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2">
-        <v>80.082999999999998</v>
+        <v>71.578999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1538,13 +1760,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>75.977999999999994</v>
+        <v>78.908000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1552,13 +1774,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>75.62</v>
+        <v>78.965999999999994</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,83 +1788,261 @@
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2">
-        <v>76.590999999999994</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2">
-        <v>80.150000000000006</v>
+        <v>79.44</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2">
-        <v>81.325000000000003</v>
+        <v>80.082999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2">
-        <v>80.233000000000004</v>
+        <v>80.082999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>84.606999999999999</v>
+        <v>75.977999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2">
+        <v>75.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2">
+        <v>76.590999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2">
+        <v>80.150000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="2">
+        <v>81.325000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="2">
+        <v>80.233000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2">
+        <v>84.606999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2">
         <v>78.817999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2">
+        <v>86.566000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2">
+        <v>78.126999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\האחסון שלי\אקדמיה\האוניברסיטה העברית\קורסים\שנה ג\סמסטר ב\מבוא לבינה מלאכותית\מטלות\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291F8EDD-1CF3-466E-9404-0DB5B6C293B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2FF69C-F610-46CF-8EA9-F2DC9DD8B07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
+    <workbookView xWindow="456" yWindow="864" windowWidth="21636" windowHeight="11256" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="21">
   <si>
     <t>Data set</t>
   </si>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC75BA4-E9C4-4F04-AA12-B23A0E27743F}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -781,6 +781,15 @@
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D14" s="2">
+        <v>10021</v>
+      </c>
+      <c r="E14" s="2">
+        <v>85.05</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -792,6 +801,15 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D15" s="2">
+        <v>192605</v>
+      </c>
+      <c r="E15" s="2">
+        <v>80.23</v>
+      </c>
+      <c r="F15" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -803,6 +821,15 @@
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D16" s="2">
+        <v>3327</v>
+      </c>
+      <c r="E16" s="2">
+        <v>79.33</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -814,6 +841,15 @@
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D17" s="2">
+        <v>363</v>
+      </c>
+      <c r="E17" s="2">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -825,6 +861,15 @@
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D18" s="2">
+        <v>206</v>
+      </c>
+      <c r="E18" s="2">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -836,6 +881,15 @@
       <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1147,6 +1201,15 @@
       <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D35" s="2">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>75.56</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -1158,6 +1221,15 @@
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D36" s="2">
+        <v>10532</v>
+      </c>
+      <c r="E36" s="2">
+        <v>76.13</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -1169,6 +1241,15 @@
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D37" s="2">
+        <v>163</v>
+      </c>
+      <c r="E37" s="2">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -1180,6 +1261,15 @@
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D38" s="2">
+        <v>921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>70.31</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -1191,6 +1281,15 @@
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D39" s="2">
+        <v>10466</v>
+      </c>
+      <c r="E39" s="2">
+        <v>75.41</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -1201,6 +1300,15 @@
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1213,6 +1321,15 @@
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D41" s="2">
+        <v>1260027</v>
+      </c>
+      <c r="E41" s="2">
+        <v>84.46</v>
+      </c>
+      <c r="F41" s="2">
+        <v>150</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -1224,6 +1341,15 @@
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D42" s="2">
+        <v>135912</v>
+      </c>
+      <c r="E42" s="2">
+        <v>84.46</v>
+      </c>
+      <c r="F42" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -1235,6 +1361,15 @@
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D43" s="2">
+        <v>21960</v>
+      </c>
+      <c r="E43" s="2">
+        <v>83.01</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -1246,6 +1381,15 @@
       <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D44" s="2">
+        <v>1700926</v>
+      </c>
+      <c r="E44" s="2">
+        <v>85.05</v>
+      </c>
+      <c r="F44" s="2">
+        <v>300</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1257,6 +1401,15 @@
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D45" s="2">
+        <v>1134098</v>
+      </c>
+      <c r="E45" s="2">
+        <v>80.23</v>
+      </c>
+      <c r="F45" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -1268,6 +1421,15 @@
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D46" s="2">
+        <v>52509</v>
+      </c>
+      <c r="E46" s="2">
+        <v>79.33</v>
+      </c>
+      <c r="F46" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -1279,6 +1441,15 @@
       <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D47" s="2">
+        <v>957805</v>
+      </c>
+      <c r="E47" s="2">
+        <v>77.930000000000007</v>
+      </c>
+      <c r="F47" s="2">
+        <v>280</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -1290,6 +1461,15 @@
       <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D48" s="2">
+        <v>957805</v>
+      </c>
+      <c r="E48" s="2">
+        <v>77.930000000000007</v>
+      </c>
+      <c r="F48" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -1301,6 +1481,15 @@
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -1367,7 +1556,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
@@ -1376,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="E53" s="2">
-        <v>84.606999999999999</v>
+        <v>78.817999999999998</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>17</v>
@@ -1387,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
@@ -1396,15 +1585,56 @@
         <v>17</v>
       </c>
       <c r="E54" s="2">
-        <v>78.817999999999998</v>
+        <v>84.606999999999999</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="2">
+        <v>86.566000000000003</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="2">
+        <v>78.126999999999995</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1412,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8729A61D-97FE-4E17-BE5D-4AD4726A2D83}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView rightToLeft="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\האחסון שלי\אקדמיה\האוניברסיטה העברית\קורסים\שנה ג\סמסטר ב\מבוא לבינה מלאכותית\מטלות\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2FF69C-F610-46CF-8EA9-F2DC9DD8B07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D3F2E-C262-4F89-8A1F-1E0E5A41DD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="456" yWindow="864" windowWidth="21636" windowHeight="11256" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="21">
   <si>
     <t>Data set</t>
   </si>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC75BA4-E9C4-4F04-AA12-B23A0E27743F}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1136,19 +1136,19 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2">
-        <v>75.977999999999994</v>
+        <v>75.56</v>
       </c>
       <c r="F32" s="2">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,19 +1156,19 @@
         <v>14</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>363</v>
+        <v>10532</v>
       </c>
       <c r="E33" s="2">
-        <v>75.62</v>
+        <v>76.13</v>
       </c>
       <c r="F33" s="2">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1176,19 +1176,19 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2">
-        <v>105683</v>
+        <v>163</v>
       </c>
       <c r="E34" s="2">
-        <v>76.590999999999994</v>
+        <v>74.180000000000007</v>
       </c>
       <c r="F34" s="2">
-        <v>20</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1196,19 +1196,19 @@
         <v>14</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="2">
-        <v>64</v>
+        <v>921</v>
       </c>
       <c r="E35" s="2">
-        <v>75.56</v>
+        <v>70.31</v>
       </c>
       <c r="F35" s="2">
-        <v>1E-3</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,19 +1216,19 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="2">
-        <v>10532</v>
+        <v>10466</v>
       </c>
       <c r="E36" s="2">
-        <v>76.13</v>
+        <v>75.41</v>
       </c>
       <c r="F36" s="2">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,79 +1236,79 @@
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="2">
-        <v>163</v>
-      </c>
-      <c r="E37" s="2">
-        <v>74.180000000000007</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.01</v>
+      <c r="D37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="2">
-        <v>921</v>
+        <v>1260027</v>
       </c>
       <c r="E38" s="2">
-        <v>70.31</v>
+        <v>84.46</v>
       </c>
       <c r="F38" s="2">
-        <v>0.09</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="2">
-        <v>10466</v>
+        <v>135912</v>
       </c>
       <c r="E39" s="2">
-        <v>75.41</v>
+        <v>84.46</v>
       </c>
       <c r="F39" s="2">
-        <v>0.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>17</v>
+      <c r="D40" s="2">
+        <v>21960</v>
+      </c>
+      <c r="E40" s="2">
+        <v>83.01</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1316,19 +1316,19 @@
         <v>20</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="2">
-        <v>1260027</v>
+        <v>1700926</v>
       </c>
       <c r="E41" s="2">
-        <v>84.46</v>
+        <v>85.05</v>
       </c>
       <c r="F41" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1336,19 +1336,19 @@
         <v>20</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="2">
-        <v>135912</v>
+        <v>1134098</v>
       </c>
       <c r="E42" s="2">
-        <v>84.46</v>
+        <v>80.23</v>
       </c>
       <c r="F42" s="2">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1356,19 +1356,19 @@
         <v>20</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="2">
-        <v>21960</v>
+        <v>52509</v>
       </c>
       <c r="E43" s="2">
-        <v>83.01</v>
+        <v>79.33</v>
       </c>
       <c r="F43" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1376,19 +1376,19 @@
         <v>20</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="2">
-        <v>1700926</v>
+        <v>957805</v>
       </c>
       <c r="E44" s="2">
-        <v>85.05</v>
+        <v>77.930000000000007</v>
       </c>
       <c r="F44" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,19 +1396,19 @@
         <v>20</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>1134098</v>
+        <v>957805</v>
       </c>
       <c r="E45" s="2">
-        <v>80.23</v>
+        <v>77.930000000000007</v>
       </c>
       <c r="F45" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1416,19 +1416,19 @@
         <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="2">
-        <v>52509</v>
-      </c>
-      <c r="E46" s="2">
-        <v>79.33</v>
-      </c>
-      <c r="F46" s="2">
-        <v>10</v>
+      <c r="D46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,19 +1436,19 @@
         <v>20</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="2">
-        <v>957805</v>
-      </c>
-      <c r="E47" s="2">
-        <v>77.930000000000007</v>
-      </c>
-      <c r="F47" s="2">
-        <v>280</v>
+        <v>4000000</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,19 +1456,19 @@
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>957805</v>
-      </c>
-      <c r="E48" s="2">
-        <v>77.930000000000007</v>
-      </c>
-      <c r="F48" s="2">
-        <v>120</v>
+        <v>4000000</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1476,13 +1476,13 @@
         <v>20</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>17</v>
+      <c r="D49" s="2">
+        <v>4000000</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>17</v>
@@ -1493,19 +1493,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="2">
-        <v>80.150000000000006</v>
+        <v>10</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>17</v>
@@ -1513,19 +1513,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="2">
-        <v>81.325000000000003</v>
+        <v>11</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>17</v>
@@ -1533,19 +1533,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="2">
-        <v>80.233000000000004</v>
+        <v>12</v>
+      </c>
+      <c r="D52" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>17</v>
@@ -1553,19 +1553,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="2">
-        <v>78.817999999999998</v>
+        <v>10</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>17</v>
@@ -1573,19 +1573,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="2">
-        <v>84.606999999999999</v>
+        <v>11</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>17</v>
@@ -1593,19 +1593,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="2">
-        <v>86.566000000000003</v>
+        <v>12</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>17</v>
@@ -1616,18 +1616,138 @@
         <v>16</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="2">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="2">
+        <v>81.325000000000003</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="2">
+        <v>80.233000000000004</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="2">
+        <v>78.817999999999998</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="2">
+        <v>84.606999999999999</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="2">
+        <v>86.566000000000003</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="C62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="2">
         <v>78.126999999999995</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\האחסון שלי\אקדמיה\האוניברסיטה העברית\קורסים\שנה ג\סמסטר ב\מבוא לבינה מלאכותית\מטלות\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D3F2E-C262-4F89-8A1F-1E0E5A41DD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6F9026-AE85-4FD6-A817-D33997A2B25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="21">
   <si>
     <t>Data set</t>
   </si>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC75BA4-E9C4-4F04-AA12-B23A0E27743F}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1433,19 +1433,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="2">
+        <v>80.150000000000006</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>17</v>
@@ -1453,19 +1453,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="2">
+        <v>81.325000000000003</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>17</v>
@@ -1473,19 +1473,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="2">
+        <v>80.233000000000004</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>17</v>
@@ -1493,19 +1493,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="2">
+        <v>84.606999999999999</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>17</v>
@@ -1513,19 +1513,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="2">
+        <v>86.566000000000003</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>17</v>
@@ -1533,221 +1533,21 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="2">
+        <v>78.126999999999995</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="2">
-        <v>80.150000000000006</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="2">
-        <v>81.325000000000003</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="2">
-        <v>80.233000000000004</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="2">
-        <v>78.817999999999998</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="2">
-        <v>84.606999999999999</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="2">
-        <v>86.566000000000003</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="2">
-        <v>78.126999999999995</v>
-      </c>
-      <c r="F62" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\האחסון שלי\אקדמיה\האוניברסיטה העברית\קורסים\שנה ג\סמסטר ב\מבוא לבינה מלאכותית\מטלות\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bnron\PycharmProjects\AI-FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6F9026-AE85-4FD6-A817-D33997A2B25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1055B2A8-955E-42C5-B6A3-8FAA4383E419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
+    <workbookView xWindow="3048" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar" sheetId="1" r:id="rId1"/>
-    <sheet name="avg" sheetId="2" r:id="rId2"/>
+    <sheet name="גיליון1" sheetId="3" r:id="rId2"/>
+    <sheet name="avg" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">גיליון1!$A$1:$F$46</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="27">
   <si>
     <t>Data set</t>
   </si>
@@ -101,6 +105,24 @@
   <si>
     <t>UCS</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>A*</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Semester Load</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
@@ -132,15 +154,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -148,16 +176,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,22 +817,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC75BA4-E9C4-4F04-AA12-B23A0E27743F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="2"/>
-    <col min="4" max="4" width="10.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="2"/>
-    <col min="6" max="6" width="12.796875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.37890625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.80859375" style="2"/>
+    <col min="4" max="4" width="10.09375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.80859375" style="2"/>
+    <col min="6" max="6" width="12.80859375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -531,7 +852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -551,7 +872,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -571,7 +892,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -591,7 +912,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -611,7 +932,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -631,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -651,7 +972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -671,7 +992,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -691,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -711,7 +1032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -731,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -751,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -771,7 +1092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -791,7 +1112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -811,7 +1132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -831,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -851,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -871,7 +1192,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -891,7 +1212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -911,7 +1232,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -931,7 +1252,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -951,7 +1272,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -971,7 +1292,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -991,7 +1312,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +1332,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1352,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1372,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1071,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1091,7 +1412,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1111,7 +1432,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1131,7 +1452,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1472,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1492,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1191,7 +1512,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1211,7 +1532,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1231,7 +1552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1251,7 +1572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
@@ -1271,7 +1592,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
@@ -1291,7 +1612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
@@ -1311,7 +1632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
@@ -1331,7 +1652,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
@@ -1351,7 +1672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -1391,7 +1712,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
@@ -1411,7 +1732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +1752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -1451,7 +1772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -1471,7 +1792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -1491,7 +1812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -1531,7 +1852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -1559,21 +1880,1527 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21204C8-3B02-4F4C-A3C4-0DF983CD0D88}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K72"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.37890625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.47265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.80859375" style="2"/>
+    <col min="9" max="9" width="8.80859375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.80859375" style="2"/>
+    <col min="12" max="12" width="5.37890625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.80859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.80859375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1701048</v>
+      </c>
+      <c r="E2" s="2">
+        <v>80.119</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>546530</v>
+      </c>
+      <c r="E3" s="2">
+        <v>80.119</v>
+      </c>
+      <c r="F3" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>353657</v>
+      </c>
+      <c r="E4" s="2">
+        <v>80.063000000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>63</v>
+      </c>
+      <c r="E5" s="2">
+        <v>78.594999999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>381</v>
+      </c>
+      <c r="E6" s="2">
+        <v>78.721999999999994</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>139</v>
+      </c>
+      <c r="E7" s="2">
+        <v>79.165999999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>315619</v>
+      </c>
+      <c r="E8" s="2">
+        <v>81.308999999999997</v>
+      </c>
+      <c r="F8" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>48811</v>
+      </c>
+      <c r="E9" s="2">
+        <v>81.302000000000007</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>51729</v>
+      </c>
+      <c r="E10" s="2">
+        <v>80.786000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2">
+        <v>68.524000000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>381</v>
+      </c>
+      <c r="E12" s="2">
+        <v>66.635000000000005</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>139</v>
+      </c>
+      <c r="E13" s="2">
+        <v>71.578999999999994</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100324</v>
+      </c>
+      <c r="E14" s="2">
+        <v>80.233000000000004</v>
+      </c>
+      <c r="F14" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17010</v>
+      </c>
+      <c r="E15" s="2">
+        <v>80.233000000000004</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10405</v>
+      </c>
+      <c r="E16" s="2">
+        <v>80.233000000000004</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2">
+        <v>78.908000000000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>94</v>
+      </c>
+      <c r="E18" s="2">
+        <v>78.965999999999994</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <v>65958</v>
+      </c>
+      <c r="E19" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>24259</v>
+      </c>
+      <c r="E20" s="2">
+        <v>84.463999999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3538</v>
+      </c>
+      <c r="E21" s="2">
+        <v>84.463999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10092</v>
+      </c>
+      <c r="E22" s="2">
+        <v>82.975999999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>24</v>
+      </c>
+      <c r="E23" s="2">
+        <v>79.44</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2105</v>
+      </c>
+      <c r="E24" s="2">
+        <v>80.082999999999998</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2">
+        <v>72</v>
+      </c>
+      <c r="E25" s="2">
+        <v>80.082999999999998</v>
+      </c>
+      <c r="F25" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1260027</v>
+      </c>
+      <c r="E26" s="2">
+        <v>84.46</v>
+      </c>
+      <c r="F26" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2">
+        <v>135912</v>
+      </c>
+      <c r="E27" s="2">
+        <v>84.46</v>
+      </c>
+      <c r="F27" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>21960</v>
+      </c>
+      <c r="E28" s="2">
+        <v>83.01</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10021</v>
+      </c>
+      <c r="E29" s="2">
+        <v>85.05</v>
+      </c>
+      <c r="F29" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2">
+        <v>192605</v>
+      </c>
+      <c r="E30" s="2">
+        <v>80.23</v>
+      </c>
+      <c r="F30" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3327</v>
+      </c>
+      <c r="E31" s="2">
+        <v>79.33</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>75.56</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10532</v>
+      </c>
+      <c r="E33" s="2">
+        <v>76.13</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2">
+        <v>163</v>
+      </c>
+      <c r="E34" s="2">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1700926</v>
+      </c>
+      <c r="E35" s="2">
+        <v>85.05</v>
+      </c>
+      <c r="F35" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1134098</v>
+      </c>
+      <c r="E36" s="2">
+        <v>80.23</v>
+      </c>
+      <c r="F36" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2">
+        <v>52509</v>
+      </c>
+      <c r="E37" s="2">
+        <v>79.33</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2">
+        <v>363</v>
+      </c>
+      <c r="E38" s="2">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2">
+        <v>206</v>
+      </c>
+      <c r="E39" s="2">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2">
+        <v>921</v>
+      </c>
+      <c r="E41" s="2">
+        <v>70.31</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2">
+        <v>10466</v>
+      </c>
+      <c r="E42" s="2">
+        <v>75.41</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2">
+        <v>957805</v>
+      </c>
+      <c r="E44" s="2">
+        <v>77.930000000000007</v>
+      </c>
+      <c r="F44" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2">
+        <v>957805</v>
+      </c>
+      <c r="E45" s="2">
+        <v>77.930000000000007</v>
+      </c>
+      <c r="F45" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="53" spans="3:11" ht="14.1" x14ac:dyDescent="0.45">
+      <c r="C53" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="17"/>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C54" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="8">
+        <v>1701048</v>
+      </c>
+      <c r="H55" s="9">
+        <v>63</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="8">
+        <v>1300</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="4">
+        <v>315619</v>
+      </c>
+      <c r="H56" s="11">
+        <v>63</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="4">
+        <v>140</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="4">
+        <v>100324</v>
+      </c>
+      <c r="H57" s="11">
+        <v>65</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="4">
+        <v>75</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C58" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="10">
+        <v>1260027</v>
+      </c>
+      <c r="G58" s="4">
+        <v>24259</v>
+      </c>
+      <c r="H58" s="11">
+        <v>24</v>
+      </c>
+      <c r="I58" s="10">
+        <v>150</v>
+      </c>
+      <c r="J58" s="4">
+        <v>10</v>
+      </c>
+      <c r="K58" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C59" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="10">
+        <v>1700926</v>
+      </c>
+      <c r="G59" s="4">
+        <v>10021</v>
+      </c>
+      <c r="H59" s="11">
+        <v>64</v>
+      </c>
+      <c r="I59" s="10">
+        <v>300</v>
+      </c>
+      <c r="J59" s="4">
+        <v>14</v>
+      </c>
+      <c r="K59" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C60" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="12">
+        <v>957805</v>
+      </c>
+      <c r="G60" s="13">
+        <v>363</v>
+      </c>
+      <c r="H60" s="14">
+        <v>921</v>
+      </c>
+      <c r="I60" s="12">
+        <v>280</v>
+      </c>
+      <c r="J60" s="13">
+        <v>2</v>
+      </c>
+      <c r="K60" s="14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="8">
+        <v>546530</v>
+      </c>
+      <c r="H61" s="9">
+        <v>381</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="8">
+        <v>220</v>
+      </c>
+      <c r="K61" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C62" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="4">
+        <v>48811</v>
+      </c>
+      <c r="H62" s="11">
+        <v>381</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="4">
+        <v>15</v>
+      </c>
+      <c r="K62" s="11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="4">
+        <v>17010</v>
+      </c>
+      <c r="H63" s="11">
+        <v>94</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="4">
+        <v>10</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C64" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="10">
+        <v>135912</v>
+      </c>
+      <c r="G64" s="4">
+        <v>3538</v>
+      </c>
+      <c r="H64" s="11">
+        <v>2105</v>
+      </c>
+      <c r="I64" s="10">
+        <v>13</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C65" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="10">
+        <v>1134098</v>
+      </c>
+      <c r="G65" s="4">
+        <v>192605</v>
+      </c>
+      <c r="H65" s="11">
+        <v>10532</v>
+      </c>
+      <c r="I65" s="10">
+        <v>100</v>
+      </c>
+      <c r="J65" s="4">
+        <v>55</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C66" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="12">
+        <v>957805</v>
+      </c>
+      <c r="G66" s="13">
+        <v>206</v>
+      </c>
+      <c r="H66" s="14">
+        <v>10466</v>
+      </c>
+      <c r="I66" s="12">
+        <v>120</v>
+      </c>
+      <c r="J66" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="K66" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C67" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="6">
+        <v>353657</v>
+      </c>
+      <c r="H67" s="25">
+        <v>139</v>
+      </c>
+      <c r="I67" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="6">
+        <v>115</v>
+      </c>
+      <c r="K67" s="25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="4">
+        <v>51729</v>
+      </c>
+      <c r="H68" s="11">
+        <v>139</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" s="4">
+        <v>20</v>
+      </c>
+      <c r="K68" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="4">
+        <v>10405</v>
+      </c>
+      <c r="H69" s="11">
+        <v>65958</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="4">
+        <v>5</v>
+      </c>
+      <c r="K69" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="10">
+        <v>21960</v>
+      </c>
+      <c r="G70" s="4">
+        <v>10092</v>
+      </c>
+      <c r="H70" s="11">
+        <v>72</v>
+      </c>
+      <c r="I70" s="10">
+        <v>2</v>
+      </c>
+      <c r="J70" s="4">
+        <v>2</v>
+      </c>
+      <c r="K70" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.45">
+      <c r="C71" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="15"/>
+      <c r="F71" s="10">
+        <v>52509</v>
+      </c>
+      <c r="G71" s="4">
+        <v>3327</v>
+      </c>
+      <c r="H71" s="11">
+        <v>163</v>
+      </c>
+      <c r="I71" s="10">
+        <v>10</v>
+      </c>
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F46" xr:uid="{B21204C8-3B02-4F4C-A3C4-0DF983CD0D88}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DFS"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="High"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F46">
+      <sortCondition ref="B1:B46"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:K53"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8729A61D-97FE-4E17-BE5D-4AD4726A2D83}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.47265625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +3414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1601,7 +3428,7 @@
         <v>80.119</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1615,7 +3442,7 @@
         <v>80.119</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1629,7 +3456,7 @@
         <v>80.063000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1643,7 +3470,7 @@
         <v>81.308999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1657,7 +3484,7 @@
         <v>81.302000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1671,7 +3498,7 @@
         <v>80.786000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1685,7 +3512,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1699,7 +3526,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1713,7 +3540,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1727,7 +3554,7 @@
         <v>84.463999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +3568,7 @@
         <v>84.463999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1755,7 +3582,7 @@
         <v>82.975999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +3593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1777,7 +3604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1788,7 +3615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1799,7 +3626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1810,7 +3637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1821,7 +3648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1835,7 +3662,7 @@
         <v>78.594999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1849,7 +3676,7 @@
         <v>78.721999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +3690,7 @@
         <v>79.165999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1877,7 +3704,7 @@
         <v>68.524000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1891,7 +3718,7 @@
         <v>66.635000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1905,7 +3732,7 @@
         <v>71.578999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1919,7 +3746,7 @@
         <v>78.908000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1933,7 +3760,7 @@
         <v>78.965999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1947,7 +3774,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1961,7 +3788,7 @@
         <v>79.44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1975,7 +3802,7 @@
         <v>80.082999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1989,7 +3816,7 @@
         <v>80.082999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -2003,7 +3830,7 @@
         <v>75.977999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -2017,7 +3844,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +3858,7 @@
         <v>76.590999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -2042,7 +3869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -2053,7 +3880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -2064,7 +3891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -2075,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
@@ -2086,7 +3913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -2097,7 +3924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -2111,7 +3938,7 @@
         <v>80.150000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +3952,7 @@
         <v>81.325000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -2139,7 +3966,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -2153,7 +3980,7 @@
         <v>84.606999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -2167,7 +3994,7 @@
         <v>78.817999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -2181,7 +4008,7 @@
         <v>86.566000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bnron\PycharmProjects\AI-FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\האחסון שלי\אקדמיה\האוניברסיטה העברית\קורסים\שנה ג\סמסטר ב\מבוא לבינה מלאכותית\מטלות\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1055B2A8-955E-42C5-B6A3-8FAA4383E419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458C2E6E-D4B8-42BD-9571-B09A0EA70EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3048" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="29">
   <si>
     <t>Data set</t>
   </si>
@@ -106,9 +106,6 @@
     <t>UCS</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>A*</t>
   </si>
   <si>
@@ -122,6 +119,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>4M+</t>
+  </si>
+  <si>
+    <t>4H+</t>
+  </si>
+  <si>
+    <t>Time (Sec)</t>
   </si>
 </sst>
 </file>
@@ -168,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -400,11 +406,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,9 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,15 +491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,6 +511,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,22 +869,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC75BA4-E9C4-4F04-AA12-B23A0E27743F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.37890625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.80859375" style="2"/>
-    <col min="4" max="4" width="10.09375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.80859375" style="2"/>
-    <col min="6" max="6" width="12.80859375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.80859375" style="2"/>
+    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="2"/>
+    <col min="4" max="4" width="10.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="6" width="12.796875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -872,7 +924,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -892,7 +944,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -912,7 +964,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -932,7 +984,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -952,7 +1004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -972,7 +1024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -992,7 +1044,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1192,7 +1244,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1232,7 +1284,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1252,7 +1304,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1272,7 +1324,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1292,7 +1344,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1364,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1332,7 +1384,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1352,7 +1404,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1424,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1392,7 +1444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1412,7 +1464,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1432,7 +1484,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1452,7 +1504,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1472,7 +1524,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1492,7 +1544,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1512,7 +1564,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1532,7 +1584,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1552,7 +1604,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1572,7 +1624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
@@ -1612,7 +1664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +1684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
@@ -1652,7 +1704,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
@@ -1672,7 +1724,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
@@ -1692,7 +1744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +1764,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
@@ -1732,7 +1784,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1752,7 +1804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -1772,7 +1824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -1792,7 +1844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -1812,7 +1864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -1852,7 +1904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -1882,30 +1934,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21204C8-3B02-4F4C-A3C4-0DF983CD0D88}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView rightToLeft="1" topLeftCell="A49" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I53" sqref="C53:K75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.37890625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.47265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.80859375" style="2"/>
-    <col min="9" max="9" width="8.80859375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.80859375" style="2"/>
-    <col min="12" max="12" width="5.37890625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.80859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.80859375" style="2"/>
+    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" style="2"/>
+    <col min="9" max="9" width="8.796875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.796875" style="2"/>
+    <col min="12" max="12" width="5.3984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1926,7 +1978,7 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1998,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +2018,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +2038,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2006,7 +2058,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2026,7 +2078,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2046,7 +2098,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2066,7 +2118,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -2106,7 +2158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2126,7 +2178,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2146,7 +2198,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -2166,7 +2218,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -2206,7 +2258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +2278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2246,7 +2298,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2266,7 +2318,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -2286,7 +2338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -2306,7 +2358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2326,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -2346,7 +2398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2366,7 +2418,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -2386,7 +2438,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -2406,7 +2458,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -2426,7 +2478,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -2446,7 +2498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -2466,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -2486,7 +2538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -2506,7 +2558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -2526,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -2546,7 +2598,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -2566,7 +2618,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -2586,7 +2638,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -2606,7 +2658,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -2626,7 +2678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -2646,7 +2698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -2666,7 +2718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -2686,7 +2738,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -2706,7 +2758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -2726,7 +2778,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -2746,7 +2798,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -2766,7 +2818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -2786,7 +2838,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -2817,546 +2869,627 @@
         <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J53" s="27"/>
+      <c r="K53" s="28"/>
+    </row>
+    <row r="54" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="53" spans="3:11" ht="14.1" x14ac:dyDescent="0.45">
-      <c r="C53" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="17"/>
-      <c r="K53" s="18"/>
-    </row>
-    <row r="54" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C54" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" s="8">
+      <c r="G55" s="7">
         <v>1701048</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="8">
         <v>63</v>
       </c>
-      <c r="I55" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" s="8">
+      <c r="I55" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="7">
         <v>1300</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K55" s="8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="11" t="s">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="10" t="s">
+      <c r="E56" s="14"/>
+      <c r="F56" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G56" s="4">
         <v>315619</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="10">
         <v>63</v>
       </c>
-      <c r="I56" s="10" t="s">
-        <v>26</v>
+      <c r="I56" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="J56" s="4">
         <v>140</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C57" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="11" t="s">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="10" t="s">
+      <c r="E57" s="14"/>
+      <c r="F57" s="9" t="s">
         <v>26</v>
       </c>
       <c r="G57" s="4">
         <v>100324</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="10">
         <v>65</v>
       </c>
-      <c r="I57" s="10" t="s">
-        <v>26</v>
+      <c r="I57" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="J57" s="4">
         <v>75</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C58" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="11" t="s">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="10">
+        <v>43</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="10">
+      <c r="E59" s="14"/>
+      <c r="F59" s="9">
         <v>1260027</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G59" s="4">
         <v>24259</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H59" s="10">
         <v>24</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I59" s="9">
         <v>150</v>
       </c>
-      <c r="J58" s="4">
-        <v>10</v>
-      </c>
-      <c r="K58" s="11">
+      <c r="J59" s="4">
+        <v>10</v>
+      </c>
+      <c r="K59" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C59" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="11" t="s">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="10">
+      <c r="E60" s="14"/>
+      <c r="F60" s="9">
         <v>1700926</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="4">
         <v>10021</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H60" s="10">
         <v>64</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I60" s="9">
         <v>300</v>
       </c>
-      <c r="J59" s="4">
-        <v>14</v>
-      </c>
-      <c r="K59" s="11">
+      <c r="J60" s="4">
+        <v>14</v>
+      </c>
+      <c r="K60" s="10">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C60" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="14" t="s">
+    <row r="61" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="12">
+      <c r="E61" s="14"/>
+      <c r="F61" s="11">
         <v>957805</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="12">
         <v>363</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H61" s="13">
         <v>921</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I61" s="11">
         <v>280</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J61" s="12">
         <v>2</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K61" s="13">
         <v>0.09</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="9" t="s">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="7" t="s">
+      <c r="E62" s="14"/>
+      <c r="F62" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G62" s="7">
         <v>546530</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H62" s="8">
         <v>381</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I62" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="7">
+        <v>220</v>
+      </c>
+      <c r="K62" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J61" s="8">
-        <v>220</v>
-      </c>
-      <c r="K61" s="9">
+      <c r="G63" s="4">
+        <v>48811</v>
+      </c>
+      <c r="H63" s="10">
+        <v>381</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="4">
+        <v>15</v>
+      </c>
+      <c r="K63" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C62" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="11" t="s">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="4">
+        <v>17010</v>
+      </c>
+      <c r="H64" s="10">
+        <v>94</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="4">
+        <v>10</v>
+      </c>
+      <c r="K64" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="10">
+        <v>363</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="9">
+        <v>135912</v>
+      </c>
+      <c r="G66" s="4">
+        <v>3538</v>
+      </c>
+      <c r="H66" s="10">
+        <v>2105</v>
+      </c>
+      <c r="I66" s="9">
+        <v>13</v>
+      </c>
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="9">
+        <v>1134098</v>
+      </c>
+      <c r="G67" s="4">
+        <v>192605</v>
+      </c>
+      <c r="H67" s="10">
+        <v>10532</v>
+      </c>
+      <c r="I67" s="9">
+        <v>100</v>
+      </c>
+      <c r="J67" s="4">
+        <v>55</v>
+      </c>
+      <c r="K67" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="11">
+        <v>957805</v>
+      </c>
+      <c r="G68" s="12">
+        <v>206</v>
+      </c>
+      <c r="H68" s="13">
+        <v>10466</v>
+      </c>
+      <c r="I68" s="11">
+        <v>120</v>
+      </c>
+      <c r="J68" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="K68" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C69" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="5">
+        <v>353657</v>
+      </c>
+      <c r="H69" s="21">
+        <v>139</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="5">
+        <v>115</v>
+      </c>
+      <c r="K69" s="21">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C70" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="15"/>
-      <c r="F62" s="10" t="s">
+      <c r="E70" s="14"/>
+      <c r="F70" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="4">
-        <v>48811</v>
-      </c>
-      <c r="H62" s="11">
-        <v>381</v>
-      </c>
-      <c r="I62" s="10" t="s">
+      <c r="G70" s="4">
+        <v>51729</v>
+      </c>
+      <c r="H70" s="10">
+        <v>139</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" s="4">
+        <v>20</v>
+      </c>
+      <c r="K70" s="10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J62" s="4">
+      <c r="G71" s="4">
+        <v>10405</v>
+      </c>
+      <c r="H71" s="10">
+        <v>65958</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J71" s="4">
+        <v>5</v>
+      </c>
+      <c r="K71" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="11">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C63" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="10" t="s">
+      <c r="E72" s="14"/>
+      <c r="F72" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G63" s="4">
-        <v>17010</v>
-      </c>
-      <c r="H63" s="11">
-        <v>94</v>
-      </c>
-      <c r="I63" s="10" t="s">
+      <c r="G72" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J63" s="4">
-        <v>10</v>
-      </c>
-      <c r="K63" s="11">
+      <c r="H72" s="10">
+        <v>105683</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C73" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="9">
+        <v>21960</v>
+      </c>
+      <c r="G73" s="4">
+        <v>10092</v>
+      </c>
+      <c r="H73" s="10">
+        <v>72</v>
+      </c>
+      <c r="I73" s="9">
+        <v>2</v>
+      </c>
+      <c r="J73" s="4">
+        <v>2</v>
+      </c>
+      <c r="K73" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="9">
+        <v>52509</v>
+      </c>
+      <c r="G74" s="4">
+        <v>3327</v>
+      </c>
+      <c r="H74" s="10">
+        <v>163</v>
+      </c>
+      <c r="I74" s="9">
+        <v>10</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1</v>
+      </c>
+      <c r="K74" s="10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C64" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="10">
-        <v>135912</v>
-      </c>
-      <c r="G64" s="4">
-        <v>3538</v>
-      </c>
-      <c r="H64" s="11">
-        <v>2105</v>
-      </c>
-      <c r="I64" s="10">
-        <v>13</v>
-      </c>
-      <c r="J64" s="4">
-        <v>1</v>
-      </c>
-      <c r="K64" s="11">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C65" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="10">
-        <v>1134098</v>
-      </c>
-      <c r="G65" s="4">
-        <v>192605</v>
-      </c>
-      <c r="H65" s="11">
-        <v>10532</v>
-      </c>
-      <c r="I65" s="10">
-        <v>100</v>
-      </c>
-      <c r="J65" s="4">
-        <v>55</v>
-      </c>
-      <c r="K65" s="11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="66" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C66" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="14" t="s">
+    <row r="75" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="12">
-        <v>957805</v>
-      </c>
-      <c r="G66" s="13">
-        <v>206</v>
-      </c>
-      <c r="H66" s="14">
-        <v>10466</v>
-      </c>
-      <c r="I66" s="12">
-        <v>120</v>
-      </c>
-      <c r="J66" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="K66" s="14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C67" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" s="6">
-        <v>353657</v>
-      </c>
-      <c r="H67" s="25">
-        <v>139</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="6">
-        <v>115</v>
-      </c>
-      <c r="K67" s="25">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C68" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="4">
-        <v>51729</v>
-      </c>
-      <c r="H68" s="11">
-        <v>139</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J68" s="4">
-        <v>20</v>
-      </c>
-      <c r="K68" s="11">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="4">
-        <v>10405</v>
-      </c>
-      <c r="H69" s="11">
-        <v>65958</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="4">
-        <v>5</v>
-      </c>
-      <c r="K69" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="15"/>
-      <c r="F70" s="10">
-        <v>21960</v>
-      </c>
-      <c r="G70" s="4">
-        <v>10092</v>
-      </c>
-      <c r="H70" s="11">
-        <v>72</v>
-      </c>
-      <c r="I70" s="10">
-        <v>2</v>
-      </c>
-      <c r="J70" s="4">
-        <v>2</v>
-      </c>
-      <c r="K70" s="11">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="10">
-        <v>52509</v>
-      </c>
-      <c r="G71" s="4">
-        <v>3327</v>
-      </c>
-      <c r="H71" s="11">
-        <v>163</v>
-      </c>
-      <c r="I71" s="10">
-        <v>10</v>
-      </c>
-      <c r="J71" s="4">
-        <v>1</v>
-      </c>
-      <c r="K71" s="11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="72" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C72" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>26</v>
+      <c r="E75" s="14"/>
+      <c r="F75" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3393,14 +3526,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.47265625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.80859375" style="2"/>
+    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3414,7 +3547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3428,7 +3561,7 @@
         <v>80.119</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3575,7 @@
         <v>80.119</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3456,7 +3589,7 @@
         <v>80.063000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3470,7 +3603,7 @@
         <v>81.308999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3484,7 +3617,7 @@
         <v>81.302000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -3498,7 +3631,7 @@
         <v>80.786000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3512,7 +3645,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3526,7 +3659,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3540,7 +3673,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -3554,7 +3687,7 @@
         <v>84.463999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -3568,7 +3701,7 @@
         <v>84.463999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -3582,7 +3715,7 @@
         <v>82.975999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3593,7 +3726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3604,7 +3737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -3615,7 +3748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3626,7 +3759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -3637,7 +3770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -3648,7 +3781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -3662,7 +3795,7 @@
         <v>78.594999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -3676,7 +3809,7 @@
         <v>78.721999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -3690,7 +3823,7 @@
         <v>79.165999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3704,7 +3837,7 @@
         <v>68.524000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3718,7 +3851,7 @@
         <v>66.635000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -3732,7 +3865,7 @@
         <v>71.578999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -3746,7 +3879,7 @@
         <v>78.908000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -3760,7 +3893,7 @@
         <v>78.965999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -3774,7 +3907,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -3788,7 +3921,7 @@
         <v>79.44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -3802,7 +3935,7 @@
         <v>80.082999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -3816,7 +3949,7 @@
         <v>80.082999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -3830,7 +3963,7 @@
         <v>75.977999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -3844,7 +3977,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -3858,7 +3991,7 @@
         <v>76.590999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -3869,7 +4002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -3880,7 +4013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -3891,7 +4024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -3902,7 +4035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
@@ -3913,7 +4046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -3924,7 +4057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -3938,7 +4071,7 @@
         <v>80.150000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -3952,7 +4085,7 @@
         <v>81.325000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -3966,7 +4099,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -3980,7 +4113,7 @@
         <v>84.606999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -3994,7 +4127,7 @@
         <v>78.817999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -4008,7 +4141,7 @@
         <v>86.566000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\האחסון שלי\אקדמיה\האוניברסיטה העברית\קורסים\שנה ג\סמסטר ב\מבוא לבינה מלאכותית\מטלות\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458C2E6E-D4B8-42BD-9571-B09A0EA70EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7937AEF-94F2-4FFB-95FF-FDEF5F3F5000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar" sheetId="1" r:id="rId1"/>
-    <sheet name="גיליון1" sheetId="3" r:id="rId2"/>
-    <sheet name="avg" sheetId="2" r:id="rId3"/>
+    <sheet name="local" sheetId="4" r:id="rId2"/>
+    <sheet name="גיליון1" sheetId="3" r:id="rId3"/>
+    <sheet name="avg" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">גיליון1!$A$1:$F$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">גיליון1!$A$1:$F$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="34">
   <si>
     <t>Data set</t>
   </si>
@@ -128,6 +129,21 @@
   </si>
   <si>
     <t>Time (Sec)</t>
+  </si>
+  <si>
+    <t>RATIO %</t>
+  </si>
+  <si>
+    <t>Simulated Anealing</t>
+  </si>
+  <si>
+    <t>Hill Climbing</t>
+  </si>
+  <si>
+    <t>Stochastic Beam Search</t>
+  </si>
+  <si>
+    <t>Simulated Annealing</t>
   </si>
 </sst>
 </file>
@@ -869,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC75BA4-E9C4-4F04-AA12-B23A0E27743F}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1932,6 +1948,975 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F0CCF9-61D8-44BF-8CE9-C17F122C5534}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E2" s="2">
+        <v>79.17</v>
+      </c>
+      <c r="F2" s="2">
+        <f>1250/50</f>
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E3" s="2">
+        <v>79.36</v>
+      </c>
+      <c r="F3" s="2">
+        <f>1940/50</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E4" s="2">
+        <v>79.45</v>
+      </c>
+      <c r="F4" s="2">
+        <f>1890/50</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E5" s="2">
+        <v>74.64</v>
+      </c>
+      <c r="F5" s="2">
+        <f>4100/50</f>
+        <v>82</v>
+      </c>
+      <c r="G5" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E6" s="2">
+        <v>74.53</v>
+      </c>
+      <c r="F6" s="2">
+        <f>4650/50</f>
+        <v>93</v>
+      </c>
+      <c r="G6" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E7" s="2">
+        <v>75.09</v>
+      </c>
+      <c r="F7" s="2">
+        <f>2370/50</f>
+        <v>47.4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E8" s="2">
+        <v>79.02</v>
+      </c>
+      <c r="F8" s="2">
+        <f>850/50</f>
+        <v>17</v>
+      </c>
+      <c r="G8" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E9" s="2">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F9" s="2">
+        <f>2070/50</f>
+        <v>41.4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E10" s="2">
+        <v>78.91</v>
+      </c>
+      <c r="F10" s="2">
+        <f>1980/50</f>
+        <v>39.6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E11" s="2">
+        <v>76.66</v>
+      </c>
+      <c r="F11" s="2">
+        <f>1550/50</f>
+        <v>31</v>
+      </c>
+      <c r="G11" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E12" s="2">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F12" s="2">
+        <f>1000/50</f>
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E13" s="2">
+        <v>77.3</v>
+      </c>
+      <c r="F13" s="2">
+        <f>1920/50</f>
+        <v>38.4</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>79.16</v>
+      </c>
+      <c r="F14" s="2">
+        <f>15/50</f>
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>79.319999999999993</v>
+      </c>
+      <c r="F15" s="2">
+        <f>12/50</f>
+        <v>0.24</v>
+      </c>
+      <c r="G15" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2">
+        <v>79.03</v>
+      </c>
+      <c r="F16" s="2">
+        <f>16/50</f>
+        <v>0.32</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2">
+        <v>74</v>
+      </c>
+      <c r="F17" s="2">
+        <f>17/50</f>
+        <v>0.34</v>
+      </c>
+      <c r="G17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2">
+        <v>74.37</v>
+      </c>
+      <c r="F18" s="2">
+        <f>14/50</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G18" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>74.14</v>
+      </c>
+      <c r="F19" s="2">
+        <f>10/50</f>
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2">
+        <v>78.94</v>
+      </c>
+      <c r="F20" s="2">
+        <f>17/50</f>
+        <v>0.34</v>
+      </c>
+      <c r="G20" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="F21" s="2">
+        <f>17/50</f>
+        <v>0.34</v>
+      </c>
+      <c r="G21" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2">
+        <v>79.39</v>
+      </c>
+      <c r="F22" s="2">
+        <f>18/50</f>
+        <v>0.36</v>
+      </c>
+      <c r="G22" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2">
+        <v>76.59</v>
+      </c>
+      <c r="F23" s="2">
+        <f>27/50</f>
+        <v>0.54</v>
+      </c>
+      <c r="G23" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2">
+        <v>76.73</v>
+      </c>
+      <c r="F24" s="2">
+        <f>23/50</f>
+        <v>0.46</v>
+      </c>
+      <c r="G24" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2">
+        <v>77.12</v>
+      </c>
+      <c r="F25" s="2">
+        <f>30/50</f>
+        <v>0.6</v>
+      </c>
+      <c r="G25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>754</v>
+      </c>
+      <c r="E26" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="F26" s="2">
+        <v>86</v>
+      </c>
+      <c r="G26" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2">
+        <v>14409</v>
+      </c>
+      <c r="E27" s="2">
+        <v>77.510000000000005</v>
+      </c>
+      <c r="F27" s="2">
+        <v>904</v>
+      </c>
+      <c r="G27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1312</v>
+      </c>
+      <c r="E28" s="2">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="F28" s="2">
+        <v>220</v>
+      </c>
+      <c r="G28" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1519</v>
+      </c>
+      <c r="E29" s="2">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="F29" s="2">
+        <v>134</v>
+      </c>
+      <c r="G29" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1334</v>
+      </c>
+      <c r="E30" s="2">
+        <v>74.61</v>
+      </c>
+      <c r="F30" s="2">
+        <v>215</v>
+      </c>
+      <c r="G30" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1959</v>
+      </c>
+      <c r="E31" s="2">
+        <v>72.62</v>
+      </c>
+      <c r="F31" s="2">
+        <v>136</v>
+      </c>
+      <c r="G31" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1450</v>
+      </c>
+      <c r="E32" s="2">
+        <v>79.510000000000005</v>
+      </c>
+      <c r="F32" s="2">
+        <v>94</v>
+      </c>
+      <c r="G32" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3680</v>
+      </c>
+      <c r="E33" s="2">
+        <v>79.38</v>
+      </c>
+      <c r="F33" s="2">
+        <v>210</v>
+      </c>
+      <c r="G33" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1580</v>
+      </c>
+      <c r="E34" s="2">
+        <v>76.06</v>
+      </c>
+      <c r="F34" s="2">
+        <v>160</v>
+      </c>
+      <c r="G34" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1434</v>
+      </c>
+      <c r="E35" s="2">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="F35" s="2">
+        <v>93</v>
+      </c>
+      <c r="G35" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1360</v>
+      </c>
+      <c r="E36" s="2">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="F36" s="2">
+        <v>87</v>
+      </c>
+      <c r="G36" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1980</v>
+      </c>
+      <c r="E37" s="2">
+        <v>75.84</v>
+      </c>
+      <c r="F37" s="2">
+        <v>182</v>
+      </c>
+      <c r="G37" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="2">
+        <v>80.150000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="2">
+        <v>81.325000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2">
+        <v>80.233000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="2">
+        <v>78.817999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21204C8-3B02-4F4C-A3C4-0DF983CD0D88}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K75"/>
@@ -3518,12 +4503,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8729A61D-97FE-4E17-BE5D-4AD4726A2D83}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView rightToLeft="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\האחסון שלי\אקדמיה\האוניברסיטה העברית\קורסים\שנה ג\סמסטר ב\מבוא לבינה מלאכותית\מטלות\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bnron\PycharmProjects\AI-FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7937AEF-94F2-4FFB-95FF-FDEF5F3F5000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE554D90-4BAF-474E-B28E-8601531545F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
+    <workbookView xWindow="3048" yWindow="-17388" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{B185ED0C-F898-4113-ACB5-157695C9DA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Astar" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="35">
   <si>
     <t>Data set</t>
   </si>
@@ -134,9 +134,6 @@
     <t>RATIO %</t>
   </si>
   <si>
-    <t>Simulated Anealing</t>
-  </si>
-  <si>
     <t>Hill Climbing</t>
   </si>
   <si>
@@ -144,6 +141,12 @@
   </si>
   <si>
     <t>Simulated Annealing</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -889,18 +892,18 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="2"/>
-    <col min="4" max="4" width="10.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="2"/>
-    <col min="6" max="6" width="12.796875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.37890625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.80859375" style="2"/>
+    <col min="4" max="4" width="10.09375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.80859375" style="2"/>
+    <col min="6" max="6" width="12.80859375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -920,7 +923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -940,7 +943,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -960,7 +963,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -980,7 +983,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -1640,7 +1643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>20</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
@@ -1680,7 +1683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
@@ -1700,7 +1703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -1880,7 +1883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1900,7 +1903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -1949,25 +1952,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F0CCF9-61D8-44BF-8CE9-C17F122C5534}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="26.80859375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.90234375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.6171875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.90234375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.90234375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1984,15 +1987,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -2004,7 +2007,8 @@
         <v>1347</v>
       </c>
       <c r="E2" s="2">
-        <v>79.17</v>
+        <f>גיליון1!P2*G2/100</f>
+        <v>19.000799999999998</v>
       </c>
       <c r="F2" s="2">
         <f>1250/50</f>
@@ -2014,9 +2018,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -2028,7 +2032,8 @@
         <v>1347</v>
       </c>
       <c r="E3" s="2">
-        <v>79.36</v>
+        <f>גיליון1!P3*G3/100</f>
+        <v>15.872</v>
       </c>
       <c r="F3" s="2">
         <f>1940/50</f>
@@ -2038,9 +2043,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -2052,7 +2057,8 @@
         <v>1347</v>
       </c>
       <c r="E4" s="2">
-        <v>79.45</v>
+        <f>גיליון1!P4*G4/100</f>
+        <v>3.1779999999999999</v>
       </c>
       <c r="F4" s="2">
         <f>1890/50</f>
@@ -2062,9 +2068,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -2076,7 +2082,8 @@
         <v>1347</v>
       </c>
       <c r="E5" s="2">
-        <v>74.64</v>
+        <f>גיליון1!P5*G5/100</f>
+        <v>68.668800000000005</v>
       </c>
       <c r="F5" s="2">
         <f>4100/50</f>
@@ -2086,9 +2093,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -2100,7 +2107,8 @@
         <v>1347</v>
       </c>
       <c r="E6" s="2">
-        <v>74.53</v>
+        <f>גיליון1!P6*G6/100</f>
+        <v>43.227399999999996</v>
       </c>
       <c r="F6" s="2">
         <f>4650/50</f>
@@ -2110,9 +2118,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -2124,7 +2132,8 @@
         <v>1347</v>
       </c>
       <c r="E7" s="2">
-        <v>75.09</v>
+        <f>גיליון1!P7*G7/100</f>
+        <v>28.534200000000002</v>
       </c>
       <c r="F7" s="2">
         <f>2370/50</f>
@@ -2134,9 +2143,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -2148,7 +2157,8 @@
         <v>1347</v>
       </c>
       <c r="E8" s="2">
-        <v>79.02</v>
+        <f>גיליון1!P8*G8/100</f>
+        <v>42.6708</v>
       </c>
       <c r="F8" s="2">
         <f>850/50</f>
@@ -2158,9 +2168,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -2172,7 +2182,8 @@
         <v>1347</v>
       </c>
       <c r="E9" s="2">
-        <v>79.099999999999994</v>
+        <f>גיליון1!P9*G9/100</f>
+        <v>47.46</v>
       </c>
       <c r="F9" s="2">
         <f>2070/50</f>
@@ -2182,9 +2193,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -2196,7 +2207,8 @@
         <v>1347</v>
       </c>
       <c r="E10" s="2">
-        <v>78.91</v>
+        <f>גיליון1!P10*G10/100</f>
+        <v>25.251199999999997</v>
       </c>
       <c r="F10" s="2">
         <f>1980/50</f>
@@ -2206,9 +2218,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -2220,7 +2232,8 @@
         <v>1347</v>
       </c>
       <c r="E11" s="2">
-        <v>76.66</v>
+        <f>גיליון1!P11*G11/100</f>
+        <v>52.128799999999998</v>
       </c>
       <c r="F11" s="2">
         <f>1550/50</f>
@@ -2230,9 +2243,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
@@ -2244,7 +2257,8 @@
         <v>1347</v>
       </c>
       <c r="E12" s="2">
-        <v>76.900000000000006</v>
+        <f>גיליון1!P12*G12/100</f>
+        <v>41.526000000000003</v>
       </c>
       <c r="F12" s="2">
         <f>1000/50</f>
@@ -2254,9 +2268,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
@@ -2268,7 +2282,8 @@
         <v>1347</v>
       </c>
       <c r="E13" s="2">
-        <v>77.3</v>
+        <f>גיליון1!P13*G13/100</f>
+        <v>7.73</v>
       </c>
       <c r="F13" s="2">
         <f>1920/50</f>
@@ -2278,9 +2293,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
@@ -2292,7 +2307,8 @@
         <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>79.16</v>
+        <f>גיליון1!P14*G14/100</f>
+        <v>26.914400000000001</v>
       </c>
       <c r="F14" s="2">
         <f>15/50</f>
@@ -2302,9 +2318,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
@@ -2316,7 +2332,8 @@
         <v>12</v>
       </c>
       <c r="E15" s="2">
-        <v>79.319999999999993</v>
+        <f>גיליון1!P15*G15/100</f>
+        <v>14.277599999999998</v>
       </c>
       <c r="F15" s="2">
         <f>12/50</f>
@@ -2326,9 +2343,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -2340,7 +2357,8 @@
         <v>12</v>
       </c>
       <c r="E16" s="2">
-        <v>79.03</v>
+        <f>גיליון1!P16*G16/100</f>
+        <v>1.5806</v>
       </c>
       <c r="F16" s="2">
         <f>16/50</f>
@@ -2350,9 +2368,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -2364,7 +2382,8 @@
         <v>14</v>
       </c>
       <c r="E17" s="2">
-        <v>74</v>
+        <f>גיליון1!P17*G17/100</f>
+        <v>35.520000000000003</v>
       </c>
       <c r="F17" s="2">
         <f>17/50</f>
@@ -2374,9 +2393,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -2388,7 +2407,8 @@
         <v>12</v>
       </c>
       <c r="E18" s="2">
-        <v>74.37</v>
+        <f>גיליון1!P18*G18/100</f>
+        <v>19.336200000000002</v>
       </c>
       <c r="F18" s="2">
         <f>14/50</f>
@@ -2398,9 +2418,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -2412,7 +2432,8 @@
         <v>9</v>
       </c>
       <c r="E19" s="2">
-        <v>74.14</v>
+        <f>גיליון1!P19*G19/100</f>
+        <v>10.3796</v>
       </c>
       <c r="F19" s="2">
         <f>10/50</f>
@@ -2422,9 +2443,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -2436,7 +2457,8 @@
         <v>14</v>
       </c>
       <c r="E20" s="2">
-        <v>78.94</v>
+        <f>גיליון1!P20*G20/100</f>
+        <v>50.521599999999999</v>
       </c>
       <c r="F20" s="2">
         <f>17/50</f>
@@ -2446,9 +2468,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -2460,7 +2482,8 @@
         <v>14</v>
       </c>
       <c r="E21" s="2">
-        <v>78.989999999999995</v>
+        <f>גיליון1!P21*G21/100</f>
+        <v>33.175800000000002</v>
       </c>
       <c r="F21" s="2">
         <f>17/50</f>
@@ -2470,9 +2493,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
@@ -2484,7 +2507,8 @@
         <v>15</v>
       </c>
       <c r="E22" s="2">
-        <v>79.39</v>
+        <f>גיליון1!P22*G22/100</f>
+        <v>30.168200000000002</v>
       </c>
       <c r="F22" s="2">
         <f>18/50</f>
@@ -2494,9 +2518,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
@@ -2508,7 +2532,8 @@
         <v>15</v>
       </c>
       <c r="E23" s="2">
-        <v>76.59</v>
+        <f>גיליון1!P23*G23/100</f>
+        <v>42.8904</v>
       </c>
       <c r="F23" s="2">
         <f>27/50</f>
@@ -2518,9 +2543,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -2532,7 +2557,8 @@
         <v>14</v>
       </c>
       <c r="E24" s="2">
-        <v>76.73</v>
+        <f>גיליון1!P24*G24/100</f>
+        <v>26.088200000000001</v>
       </c>
       <c r="F24" s="2">
         <f>23/50</f>
@@ -2542,9 +2568,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -2556,7 +2582,8 @@
         <v>12</v>
       </c>
       <c r="E25" s="2">
-        <v>77.12</v>
+        <f>גיליון1!P25*G25/100</f>
+        <v>4.6272000000000002</v>
       </c>
       <c r="F25" s="2">
         <f>30/50</f>
@@ -2566,9 +2593,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
@@ -2580,6 +2607,7 @@
         <v>754</v>
       </c>
       <c r="E26" s="2">
+        <f>גיליון1!P26*G26/100</f>
         <v>79.400000000000006</v>
       </c>
       <c r="F26" s="2">
@@ -2589,9 +2617,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
@@ -2603,18 +2631,19 @@
         <v>14409</v>
       </c>
       <c r="E27" s="2">
+        <f>גיליון1!P27*G27/100</f>
         <v>77.510000000000005</v>
       </c>
       <c r="F27" s="2">
-        <v>904</v>
+        <v>204</v>
       </c>
       <c r="G27" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -2626,6 +2655,7 @@
         <v>1312</v>
       </c>
       <c r="E28" s="2">
+        <f>גיליון1!P28*G28/100</f>
         <v>76.209999999999994</v>
       </c>
       <c r="F28" s="2">
@@ -2635,9 +2665,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
@@ -2649,6 +2679,7 @@
         <v>1519</v>
       </c>
       <c r="E29" s="2">
+        <f>גיליון1!P29*G29/100</f>
         <v>74.989999999999995</v>
       </c>
       <c r="F29" s="2">
@@ -2658,9 +2689,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -2672,6 +2703,7 @@
         <v>1334</v>
       </c>
       <c r="E30" s="2">
+        <f>גיליון1!P30*G30/100</f>
         <v>74.61</v>
       </c>
       <c r="F30" s="2">
@@ -2681,9 +2713,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -2695,6 +2727,7 @@
         <v>1959</v>
       </c>
       <c r="E31" s="2">
+        <f>גיליון1!P31*G31/100</f>
         <v>72.62</v>
       </c>
       <c r="F31" s="2">
@@ -2704,9 +2737,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
@@ -2718,6 +2751,7 @@
         <v>1450</v>
       </c>
       <c r="E32" s="2">
+        <f>גיליון1!P32*G32/100</f>
         <v>79.510000000000005</v>
       </c>
       <c r="F32" s="2">
@@ -2727,9 +2761,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
@@ -2741,6 +2775,7 @@
         <v>3680</v>
       </c>
       <c r="E33" s="2">
+        <f>גיליון1!P33*G33/100</f>
         <v>79.38</v>
       </c>
       <c r="F33" s="2">
@@ -2750,9 +2785,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
@@ -2764,6 +2799,7 @@
         <v>1580</v>
       </c>
       <c r="E34" s="2">
+        <f>גיליון1!P34*G34/100</f>
         <v>76.06</v>
       </c>
       <c r="F34" s="2">
@@ -2773,9 +2809,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
@@ -2787,6 +2823,7 @@
         <v>1434</v>
       </c>
       <c r="E35" s="2">
+        <f>גיליון1!P35*G35/100</f>
         <v>77.010000000000005</v>
       </c>
       <c r="F35" s="2">
@@ -2796,9 +2833,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
@@ -2810,6 +2847,7 @@
         <v>1360</v>
       </c>
       <c r="E36" s="2">
+        <f>גיליון1!P36*G36/100</f>
         <v>76.819999999999993</v>
       </c>
       <c r="F36" s="2">
@@ -2819,9 +2857,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>15</v>
@@ -2833,6 +2871,7 @@
         <v>1980</v>
       </c>
       <c r="E37" s="2">
+        <f>גיליון1!P37*G37/100</f>
         <v>75.84</v>
       </c>
       <c r="F37" s="2">
@@ -2842,7 +2881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -2856,10 +2895,10 @@
         <v>17</v>
       </c>
       <c r="E38" s="2">
-        <v>80.150000000000006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -2873,10 +2912,10 @@
         <v>17</v>
       </c>
       <c r="E39" s="2">
-        <v>81.325000000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -2890,10 +2929,10 @@
         <v>17</v>
       </c>
       <c r="E40" s="2">
-        <v>80.233000000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -2907,7 +2946,7 @@
         <v>17</v>
       </c>
       <c r="E41" s="2">
-        <v>78.817999999999998</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2918,31 +2957,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21204C8-3B02-4F4C-A3C4-0DF983CD0D88}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A49" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I53" sqref="C53:K75"/>
+    <sheetView rightToLeft="1" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.37890625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" style="2"/>
-    <col min="9" max="9" width="8.796875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.796875" style="2"/>
-    <col min="12" max="12" width="5.3984375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.796875" style="2"/>
+    <col min="6" max="6" width="13.47265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.80859375" style="2"/>
+    <col min="9" max="9" width="8.80859375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.80859375" style="2"/>
+    <col min="12" max="12" width="5.37890625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.80859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2962,8 +3000,11 @@
         <v>13</v>
       </c>
       <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2982,8 +3023,11 @@
       <c r="F2" s="2">
         <v>1300</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="2">
+        <v>79.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3002,8 +3046,11 @@
       <c r="F3" s="2">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="2">
+        <v>79.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3022,8 +3069,11 @@
       <c r="F4" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="2">
+        <v>79.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -3042,8 +3092,11 @@
       <c r="F5" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="2">
+        <v>74.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3062,8 +3115,11 @@
       <c r="F6" s="2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P6" s="2">
+        <v>74.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3082,8 +3138,11 @@
       <c r="F7" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="2">
+        <v>75.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -3102,8 +3161,11 @@
       <c r="F8" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="2">
+        <v>79.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -3122,8 +3184,11 @@
       <c r="F9" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="2">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -3142,8 +3207,11 @@
       <c r="F10" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="2">
+        <v>78.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3162,8 +3230,11 @@
       <c r="F11" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="2">
+        <v>76.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -3182,8 +3253,11 @@
       <c r="F12" s="2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P12" s="2">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -3202,8 +3276,11 @@
       <c r="F13" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="2">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3222,8 +3299,11 @@
       <c r="F14" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="2">
+        <v>79.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3242,8 +3322,11 @@
       <c r="F15" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="2">
+        <v>79.319999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -3262,8 +3345,11 @@
       <c r="F16" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="2">
+        <v>79.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -3282,8 +3368,11 @@
       <c r="F17" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -3302,8 +3391,11 @@
       <c r="F18" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P18" s="2">
+        <v>74.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -3322,8 +3414,11 @@
       <c r="F19" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="2">
+        <v>74.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -3342,8 +3437,11 @@
       <c r="F20" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="2">
+        <v>78.94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -3362,8 +3460,11 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="2">
+        <v>78.989999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3382,8 +3483,11 @@
       <c r="F22" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="2">
+        <v>79.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -3402,8 +3506,11 @@
       <c r="F23" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2">
+        <v>76.59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -3422,8 +3529,11 @@
       <c r="F24" s="2">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P24" s="2">
+        <v>76.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -3442,8 +3552,11 @@
       <c r="F25" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
+        <v>77.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3462,8 +3575,11 @@
       <c r="F26" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="2">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3482,8 +3598,11 @@
       <c r="F27" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="2">
+        <v>77.510000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3502,8 +3621,11 @@
       <c r="F28" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="2">
+        <v>76.209999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -3522,8 +3644,11 @@
       <c r="F29" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="2">
+        <v>74.989999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -3542,8 +3667,11 @@
       <c r="F30" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="2">
+        <v>74.61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -3562,8 +3690,11 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="2">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -3582,8 +3713,11 @@
       <c r="F32" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="2">
+        <v>79.510000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -3602,8 +3736,11 @@
       <c r="F33" s="2">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P33" s="2">
+        <v>79.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -3622,8 +3759,11 @@
       <c r="F34" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="2">
+        <v>76.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -3642,8 +3782,11 @@
       <c r="F35" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="2">
+        <v>77.010000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -3662,8 +3805,11 @@
       <c r="F36" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="2">
+        <v>76.819999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -3682,8 +3828,11 @@
       <c r="F37" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="2">
+        <v>75.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -3702,8 +3851,11 @@
       <c r="F38" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="2">
+        <v>80.150000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -3722,8 +3874,11 @@
       <c r="F39" s="2">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="2">
+        <v>81.325000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -3742,8 +3897,11 @@
       <c r="F40" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="2">
+        <v>80.233000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -3762,8 +3920,11 @@
       <c r="F41" s="2">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="2">
+        <v>78.817999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
@@ -3783,7 +3944,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>14</v>
       </c>
@@ -3803,7 +3964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -3823,7 +3984,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
@@ -3843,7 +4004,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -3863,8 +4024,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="53" spans="3:11" ht="14.1" x14ac:dyDescent="0.45">
       <c r="C53" s="22" t="s">
         <v>24</v>
       </c>
@@ -3881,7 +4042,7 @@
       <c r="J53" s="27"/>
       <c r="K53" s="28"/>
     </row>
-    <row r="54" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C54" s="16" t="s">
         <v>2</v>
       </c>
@@ -3910,7 +4071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C55" s="6" t="s">
         <v>10</v>
       </c>
@@ -3937,7 +4098,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C56" s="9" t="s">
         <v>10</v>
       </c>
@@ -3964,7 +4125,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C57" s="9" t="s">
         <v>10</v>
       </c>
@@ -3991,7 +4152,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C58" s="9" t="s">
         <v>10</v>
       </c>
@@ -4018,7 +4179,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C59" s="9" t="s">
         <v>10</v>
       </c>
@@ -4045,7 +4206,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C60" s="9" t="s">
         <v>10</v>
       </c>
@@ -4072,7 +4233,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C61" s="11" t="s">
         <v>10</v>
       </c>
@@ -4099,7 +4260,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
@@ -4126,7 +4287,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C63" s="9" t="s">
         <v>11</v>
       </c>
@@ -4153,7 +4314,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C64" s="9" t="s">
         <v>11</v>
       </c>
@@ -4180,7 +4341,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C65" s="9" t="s">
         <v>11</v>
       </c>
@@ -4207,7 +4368,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C66" s="9" t="s">
         <v>11</v>
       </c>
@@ -4234,7 +4395,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C67" s="9" t="s">
         <v>11</v>
       </c>
@@ -4261,7 +4422,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C68" s="11" t="s">
         <v>11</v>
       </c>
@@ -4288,7 +4449,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C69" s="20" t="s">
         <v>12</v>
       </c>
@@ -4315,7 +4476,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C70" s="9" t="s">
         <v>12</v>
       </c>
@@ -4342,7 +4503,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C71" s="9" t="s">
         <v>12</v>
       </c>
@@ -4369,7 +4530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C72" s="9" t="s">
         <v>12</v>
       </c>
@@ -4396,7 +4557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C73" s="9" t="s">
         <v>12</v>
       </c>
@@ -4423,7 +4584,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.45">
       <c r="C74" s="9" t="s">
         <v>12</v>
       </c>
@@ -4450,7 +4611,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="75" spans="3:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:11" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C75" s="11" t="s">
         <v>12</v>
       </c>
@@ -4479,16 +4640,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F46" xr:uid="{B21204C8-3B02-4F4C-A3C4-0DF983CD0D88}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="DFS"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="High"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F46">
       <sortCondition ref="B1:B46"/>
     </sortState>
@@ -4511,14 +4662,14 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.80859375" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="14.6171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.47265625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.80859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4532,7 +4683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -4546,7 +4697,7 @@
         <v>80.119</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4560,7 +4711,7 @@
         <v>80.119</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -4574,7 +4725,7 @@
         <v>80.063000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4588,7 +4739,7 @@
         <v>81.308999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4602,7 +4753,7 @@
         <v>81.302000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -4616,7 +4767,7 @@
         <v>80.786000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4630,7 +4781,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -4644,7 +4795,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -4658,7 +4809,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -4672,7 +4823,7 @@
         <v>84.463999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -4686,7 +4837,7 @@
         <v>84.463999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -4700,7 +4851,7 @@
         <v>82.975999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -4711,7 +4862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -4722,7 +4873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -4733,7 +4884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -4744,7 +4895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -4755,7 +4906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -4766,7 +4917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -4780,7 +4931,7 @@
         <v>78.594999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -4794,7 +4945,7 @@
         <v>78.721999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -4808,7 +4959,7 @@
         <v>79.165999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -4822,7 +4973,7 @@
         <v>68.524000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -4836,7 +4987,7 @@
         <v>66.635000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -4850,7 +5001,7 @@
         <v>71.578999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -4864,7 +5015,7 @@
         <v>78.908000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -4878,7 +5029,7 @@
         <v>78.965999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
@@ -4892,7 +5043,7 @@
         <v>78.5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -4906,7 +5057,7 @@
         <v>79.44</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -4920,7 +5071,7 @@
         <v>80.082999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -4934,7 +5085,7 @@
         <v>80.082999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -4948,7 +5099,7 @@
         <v>75.977999999999994</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
@@ -4962,7 +5113,7 @@
         <v>75.62</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
@@ -4976,7 +5127,7 @@
         <v>76.590999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -4987,7 +5138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
@@ -4998,7 +5149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>14</v>
       </c>
@@ -5009,7 +5160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>14</v>
       </c>
@@ -5020,7 +5171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>14</v>
       </c>
@@ -5031,7 +5182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
@@ -5042,7 +5193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -5056,7 +5207,7 @@
         <v>80.150000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -5070,7 +5221,7 @@
         <v>81.325000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -5084,7 +5235,7 @@
         <v>80.233000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
@@ -5098,7 +5249,7 @@
         <v>84.606999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -5112,7 +5263,7 @@
         <v>78.817999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -5126,7 +5277,7 @@
         <v>86.566000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
